--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12800</v>
       </c>
-      <c r="G8" s="3">
-        <v>9300</v>
-      </c>
       <c r="H8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8400</v>
       </c>
       <c r="H9" s="3">
         <v>8400</v>
       </c>
       <c r="I9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J9" s="3">
         <v>10300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>8200</v>
       </c>
       <c r="O9" s="3">
         <v>8200</v>
       </c>
       <c r="P9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
-        <v>900</v>
-      </c>
       <c r="H10" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-5800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-6100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -986,35 +1006,38 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16000</v>
       </c>
-      <c r="G17" s="3">
-        <v>9600</v>
-      </c>
       <c r="H17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1211,32 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1222,79 +1256,85 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>400</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-200</v>
-      </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
       </c>
       <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,25 +1647,25 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>4000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,31 +1773,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2069,82 +2162,88 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
         <v>5700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5900</v>
       </c>
       <c r="J43" s="3">
         <v>5900</v>
       </c>
       <c r="K43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L43" s="3">
         <v>6900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E44" s="3">
         <v>54200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>58700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>58900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>56100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,22 +2333,25 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="E47" s="3">
         <v>10000</v>
       </c>
       <c r="F47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="3">
         <v>17500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>9700</v>
       </c>
       <c r="H47" s="3">
         <v>9700</v>
@@ -2255,10 +2360,10 @@
         <v>9700</v>
       </c>
       <c r="J47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K47" s="3">
         <v>18500</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2266,61 +2371,67 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="E52" s="3">
         <v>11600</v>
       </c>
       <c r="F52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G52" s="3">
         <v>5500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4800</v>
       </c>
       <c r="H52" s="3">
         <v>4800</v>
       </c>
       <c r="I52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>8700</v>
       </c>
       <c r="M52" s="3">
         <v>8700</v>
       </c>
       <c r="N52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O52" s="3">
         <v>9500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E54" s="3">
         <v>95600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>107000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>109500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3000</v>
       </c>
       <c r="F57" s="3">
         <v>3000</v>
       </c>
       <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>7000</v>
       </c>
       <c r="O57" s="3">
         <v>7000</v>
       </c>
       <c r="P57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2724,20 +2861,20 @@
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
@@ -2746,13 +2883,16 @@
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,38 +2935,41 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>6400</v>
       </c>
       <c r="F62" s="3">
         <v>6400</v>
       </c>
       <c r="G62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H62" s="3">
         <v>6900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E72" s="3">
         <v>46700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>47600</v>
       </c>
       <c r="H72" s="3">
         <v>47600</v>
       </c>
       <c r="I72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="J72" s="3">
         <v>47100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E76" s="3">
         <v>89800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>87800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>86700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,22 +3826,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3652,10 +3851,10 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -3670,10 +3869,13 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3978,28 +4199,31 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,40 +4328,43 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-500</v>
       </c>
       <c r="F100" s="3">
         <v>-500</v>
       </c>
       <c r="G100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>200</v>
       </c>
       <c r="G102" s="3">
         <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
-        <v>12800</v>
-      </c>
       <c r="H8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
-        <v>11800</v>
-      </c>
       <c r="H9" s="3">
-        <v>8400</v>
+        <v>3100</v>
       </c>
       <c r="I9" s="3">
         <v>8400</v>
       </c>
       <c r="J9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>8200</v>
       </c>
       <c r="P9" s="3">
         <v>8200</v>
       </c>
       <c r="Q9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>-6000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-5800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1009,35 +1028,38 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
-        <v>16000</v>
-      </c>
       <c r="H17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,25 +1254,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1259,22 +1292,25 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2600</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
@@ -1283,61 +1319,64 @@
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1353,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-700</v>
-      </c>
       <c r="H24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-200</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
       </c>
       <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1650,25 +1710,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I29" s="3">
         <v>1400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,25 +1854,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>1500</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>1500</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2165,85 +2257,91 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>5700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5900</v>
       </c>
       <c r="K43" s="3">
         <v>5900</v>
       </c>
       <c r="L43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E44" s="3">
         <v>54100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>55500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>58700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>56100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,25 +2437,28 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E47" s="3">
         <v>10100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>10000</v>
       </c>
       <c r="F47" s="3">
         <v>10000</v>
       </c>
       <c r="G47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="3">
         <v>17500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>9700</v>
       </c>
       <c r="I47" s="3">
         <v>9700</v>
@@ -2363,10 +2467,10 @@
         <v>9700</v>
       </c>
       <c r="K47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L47" s="3">
         <v>18500</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2374,64 +2478,70 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>11100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>11600</v>
       </c>
       <c r="F52" s="3">
         <v>11600</v>
       </c>
       <c r="G52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H52" s="3">
         <v>5500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4800</v>
       </c>
       <c r="I52" s="3">
         <v>4800</v>
       </c>
       <c r="J52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>8700</v>
       </c>
       <c r="N52" s="3">
         <v>8700</v>
       </c>
       <c r="O52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="P52" s="3">
         <v>9500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E54" s="3">
         <v>97300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>106700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>107000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>109500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3000</v>
       </c>
       <c r="G57" s="3">
         <v>3000</v>
       </c>
       <c r="H57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>7000</v>
       </c>
       <c r="P57" s="3">
         <v>7000</v>
       </c>
       <c r="Q57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2864,20 +3000,20 @@
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
@@ -2886,13 +3022,16 @@
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,41 +3077,44 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6400</v>
       </c>
       <c r="G62" s="3">
         <v>6400</v>
       </c>
       <c r="H62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I62" s="3">
         <v>6900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E72" s="3">
         <v>47000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>47600</v>
       </c>
       <c r="I72" s="3">
         <v>47600</v>
       </c>
       <c r="J72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K72" s="3">
         <v>47100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E76" s="3">
         <v>90400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>86700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>86400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>1500</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,25 +4024,26 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>600</v>
-      </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3854,10 +4052,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>1200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -3872,10 +4070,13 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
-        <v>600</v>
-      </c>
       <c r="H89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4202,28 +4422,31 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4331,40 +4560,43 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-500</v>
       </c>
       <c r="G100" s="3">
         <v>-500</v>
       </c>
       <c r="H100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8400</v>
       </c>
       <c r="J9" s="3">
         <v>8400</v>
       </c>
       <c r="K9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>8200</v>
       </c>
       <c r="Q9" s="3">
         <v>8200</v>
       </c>
       <c r="R9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-5800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1031,35 +1051,38 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,37 +1278,38 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1295,25 +1329,28 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
@@ -1322,31 +1359,34 @@
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,8 +1396,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1365,21 +1405,21 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-200</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
       </c>
       <c r="L24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,13 +1753,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1713,25 +1774,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>5200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,37 +1912,40 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2260,88 +2353,94 @@
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>5700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>5900</v>
       </c>
       <c r="L43" s="3">
         <v>5900</v>
       </c>
       <c r="M43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E44" s="3">
         <v>53400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>55500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>58700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>55400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>56100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2449,19 +2554,19 @@
         <v>9800</v>
       </c>
       <c r="E47" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F47" s="3">
         <v>10100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>10000</v>
       </c>
       <c r="G47" s="3">
         <v>10000</v>
       </c>
       <c r="H47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="3">
         <v>17500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>9700</v>
       </c>
       <c r="J47" s="3">
         <v>9700</v>
@@ -2470,10 +2575,10 @@
         <v>9700</v>
       </c>
       <c r="L47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M47" s="3">
         <v>18500</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2481,67 +2586,73 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>11600</v>
       </c>
       <c r="G52" s="3">
         <v>11600</v>
       </c>
       <c r="H52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I52" s="3">
         <v>5500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4800</v>
       </c>
       <c r="J52" s="3">
         <v>4800</v>
       </c>
       <c r="K52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>8700</v>
       </c>
       <c r="O52" s="3">
         <v>8700</v>
       </c>
       <c r="P52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>9500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E54" s="3">
         <v>96700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>107000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3000</v>
       </c>
       <c r="H57" s="3">
         <v>3000</v>
       </c>
       <c r="I57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>7000</v>
       </c>
       <c r="Q57" s="3">
         <v>7000</v>
       </c>
       <c r="R57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,13 +3114,16 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>1600</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -3003,20 +3140,20 @@
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -3025,13 +3162,16 @@
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,44 +3220,47 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,49 +3285,52 @@
         <v>5000</v>
       </c>
       <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>6400</v>
       </c>
       <c r="H62" s="3">
         <v>6400</v>
       </c>
       <c r="I62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J62" s="3">
         <v>6900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E66" s="3">
         <v>12000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E72" s="3">
         <v>43100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>47600</v>
       </c>
       <c r="J72" s="3">
         <v>47600</v>
       </c>
       <c r="K72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="L72" s="3">
         <v>47100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E76" s="3">
         <v>84600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>89900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>87000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>87100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>86700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>86400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>83900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,28 +4223,29 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4055,10 +4254,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>1200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4073,10 +4272,13 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4425,28 +4646,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4563,40 +4793,43 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>13300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-6000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-5800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-6100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-4400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,34 +1062,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>5000</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>2900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,26 +1103,32 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-800</v>
       </c>
       <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,44 +1345,46 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1332,100 +1400,112 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="E23" s="3">
-        <v>-5200</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="3">
         <v>700</v>
       </c>
       <c r="G23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,19 +1872,25 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1777,28 +1899,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>5200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>2800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,44 +2049,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,114 +2513,132 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>5900</v>
       </c>
       <c r="Q43" s="3">
         <v>6400</v>
       </c>
       <c r="R43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T43" s="3">
         <v>7200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F44" s="3">
         <v>57200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>53400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>54100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>54200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>55500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>57800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>58700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>59000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>59200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>58900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>58300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>55900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>55400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>56100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>57200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,114 +2749,132 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9800</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>9800</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>10100</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>17500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>9700</v>
       </c>
       <c r="L47" s="3">
         <v>9700</v>
       </c>
       <c r="M47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="O47" s="3">
         <v>18500</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9100</v>
+        <v>19000</v>
       </c>
       <c r="E48" s="3">
-        <v>8900</v>
+        <v>19100</v>
       </c>
       <c r="F48" s="3">
-        <v>7800</v>
+        <v>18900</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>18600</v>
       </c>
       <c r="H48" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>17700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>20000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>20600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>20700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>11100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>17400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>9500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>10700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>95700</v>
+      </c>
+      <c r="F54" s="3">
         <v>100000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>96700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>97300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>95600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>104500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>104600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>106700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>106200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>105800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>107000</v>
       </c>
       <c r="P54" s="3">
         <v>105800</v>
       </c>
       <c r="Q54" s="3">
+        <v>107000</v>
+      </c>
+      <c r="R54" s="3">
+        <v>105800</v>
+      </c>
+      <c r="S54" s="3">
         <v>106700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>109500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,19 +3385,25 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
@@ -3143,35 +3417,41 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,50 +3503,56 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F61" s="3">
         <v>5500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3562,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>11000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>13700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>21800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>25600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F72" s="3">
         <v>43700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>43100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>47000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>46700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>48900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>49100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>47600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>47600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>47100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>45600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>48500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>48200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>46800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>47700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F76" s="3">
         <v>85400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>84600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>90400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>89800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>89900</v>
       </c>
       <c r="I76" s="3">
         <v>89800</v>
       </c>
       <c r="J76" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>89800</v>
+      </c>
+      <c r="L76" s="3">
         <v>88000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>87800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>87000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>87100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>84600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>86700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>86400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>84800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>83900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4620,18 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4245,25 +4643,25 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>-200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -4275,10 +4673,16 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,28 +5091,34 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4796,40 +5256,46 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E8" s="3">
         <v>7900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8400</v>
       </c>
       <c r="M9" s="3">
         <v>8400</v>
       </c>
       <c r="N9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O9" s="3">
         <v>10300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
-      </c>
-      <c r="S9" s="3">
-        <v>8200</v>
       </c>
       <c r="T9" s="3">
         <v>8200</v>
       </c>
       <c r="U9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="V9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-6000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-6100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-4400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,17 +1101,17 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1100,35 +1119,38 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,46 +1379,47 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1406,34 +1439,37 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
@@ -1442,42 +1478,45 @@
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1485,8 +1524,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1494,21 +1533,21 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-200</v>
       </c>
       <c r="N24" s="3">
         <v>-200</v>
       </c>
       <c r="O24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1892,8 +1952,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1905,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>5200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,46 +2121,49 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2545,41 +2637,44 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>5900</v>
       </c>
       <c r="O43" s="3">
         <v>5900</v>
       </c>
       <c r="P43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>6900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,58 +2682,61 @@
         <v>55600</v>
       </c>
       <c r="E44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F44" s="3">
         <v>53900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>53400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>54100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>55500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>58900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>58300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>55400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>56100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>57200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,25 +2856,28 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2782,10 +2886,10 @@
         <v>300</v>
       </c>
       <c r="K47" s="3">
+        <v>300</v>
+      </c>
+      <c r="L47" s="3">
         <v>17500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>9700</v>
       </c>
       <c r="M47" s="3">
         <v>9700</v>
@@ -2794,10 +2898,10 @@
         <v>9700</v>
       </c>
       <c r="O47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="P47" s="3">
         <v>18500</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -2805,76 +2909,82 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17100</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11600</v>
       </c>
       <c r="J52" s="3">
         <v>11600</v>
       </c>
       <c r="K52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L52" s="3">
         <v>5500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>4800</v>
       </c>
       <c r="M52" s="3">
         <v>4800</v>
       </c>
       <c r="N52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>8700</v>
       </c>
       <c r="R52" s="3">
         <v>8700</v>
       </c>
       <c r="S52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T52" s="3">
         <v>9500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E54" s="3">
         <v>95900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>104500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>106700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>107000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>109500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
       </c>
       <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
         <v>7000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7000</v>
       </c>
       <c r="T57" s="3">
         <v>7000</v>
       </c>
       <c r="U57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,22 +3524,25 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -3423,20 +3559,20 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
@@ -3445,13 +3581,16 @@
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>500</v>
+      </c>
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,53 +3648,56 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>3200</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="G62" s="3">
         <v>5000</v>
       </c>
       <c r="H62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>6400</v>
       </c>
       <c r="K62" s="3">
         <v>6400</v>
       </c>
       <c r="L62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="M62" s="3">
         <v>6900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>12500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E72" s="3">
         <v>43800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>47600</v>
       </c>
       <c r="M72" s="3">
         <v>47600</v>
       </c>
       <c r="N72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="O72" s="3">
         <v>47100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E76" s="3">
         <v>83400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>87800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>86700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>86400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>84800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>83900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,37 +4819,38 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4661,10 +4859,10 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>1200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4679,10 +4877,13 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5097,28 +5317,31 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5262,40 +5491,43 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>12300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8400</v>
       </c>
       <c r="N9" s="3">
         <v>8400</v>
       </c>
       <c r="O9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P9" s="3">
         <v>10300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>8200</v>
       </c>
       <c r="U9" s="3">
         <v>8200</v>
       </c>
       <c r="V9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="W9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-6000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-6100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1104,17 +1124,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1122,35 +1142,38 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,49 +1413,50 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1442,37 +1476,40 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
@@ -1481,45 +1518,48 @@
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1527,8 +1567,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1536,21 +1576,21 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-700</v>
       </c>
       <c r="N23" s="3">
         <v>-700</v>
       </c>
       <c r="O23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-200</v>
       </c>
       <c r="O24" s="3">
         <v>-200</v>
       </c>
       <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,8 +2016,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1968,25 +2029,25 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>5200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,49 +2191,52 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E41" s="3">
         <v>24800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2640,103 +2733,109 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>5900</v>
       </c>
       <c r="P43" s="3">
         <v>5900</v>
       </c>
       <c r="Q43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R43" s="3">
         <v>6900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55600</v>
+        <v>61300</v>
       </c>
       <c r="E44" s="3">
         <v>55600</v>
       </c>
       <c r="F44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="G44" s="3">
         <v>53900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>53400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>58900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>58300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>55900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>55400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>56100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>57200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -2889,10 +2994,10 @@
         <v>300</v>
       </c>
       <c r="L47" s="3">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3">
         <v>17500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>9700</v>
       </c>
       <c r="N47" s="3">
         <v>9700</v>
@@ -2901,10 +3006,10 @@
         <v>9700</v>
       </c>
       <c r="P47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>18500</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -2912,79 +3017,85 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17100</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11600</v>
       </c>
       <c r="K52" s="3">
         <v>11600</v>
       </c>
       <c r="L52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M52" s="3">
         <v>5500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>4800</v>
       </c>
       <c r="N52" s="3">
         <v>4800</v>
       </c>
       <c r="O52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>8700</v>
       </c>
       <c r="S52" s="3">
         <v>8700</v>
       </c>
       <c r="T52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="U52" s="3">
         <v>9500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E54" s="3">
         <v>97400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>104600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>106700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>106200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>107000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>109500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3000</v>
       </c>
       <c r="L57" s="3">
         <v>3000</v>
       </c>
       <c r="M57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="3">
         <v>7000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>7000</v>
       </c>
       <c r="U57" s="3">
         <v>7000</v>
       </c>
       <c r="V57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="W57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,25 +3661,28 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -3562,20 +3699,20 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
@@ -3584,13 +3721,16 @@
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3200</v>
       </c>
       <c r="F62" s="3">
         <v>3200</v>
       </c>
       <c r="G62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="H62" s="3">
         <v>5000</v>
       </c>
       <c r="I62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6400</v>
       </c>
       <c r="L62" s="3">
         <v>6400</v>
       </c>
       <c r="M62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N62" s="3">
         <v>6900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E72" s="3">
         <v>47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>47600</v>
       </c>
       <c r="N72" s="3">
         <v>47600</v>
       </c>
       <c r="O72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="P72" s="3">
         <v>47100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E76" s="3">
         <v>88900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>87800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>87000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>87100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>84600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>86700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>86400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>84800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>83900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,31 +5028,31 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4862,10 +5061,10 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -4880,10 +5079,13 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5320,28 +5541,31 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5494,40 +5724,43 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>9800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>13300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>9100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>7700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-6000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-5800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-4400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1141,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1127,26 +1167,26 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,26 +1194,32 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,129 +1322,141 @@
         <v>8700</v>
       </c>
       <c r="E17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G17" s="3">
         <v>13400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>11800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-700</v>
       </c>
       <c r="O18" s="3">
         <v>-800</v>
       </c>
       <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,56 +1480,58 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
       </c>
       <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2500</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,47 +1635,47 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,138 +1689,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-5200</v>
       </c>
       <c r="J23" s="3">
         <v>700</v>
       </c>
       <c r="K23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2019,11 +2141,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2032,29 +2154,29 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>5200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>2800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-3100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,56 +2328,62 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F41" s="3">
         <v>23300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>13800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>13100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>11800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>10800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2736,106 +2922,118 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>5700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>5900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>6900</v>
-      </c>
-      <c r="S43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>5900</v>
       </c>
       <c r="U43" s="3">
         <v>6400</v>
       </c>
       <c r="V43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="X43" s="3">
         <v>7200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F44" s="3">
         <v>61300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>55600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>55600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>53900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>57200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>53400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>54100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>54200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>55500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>57800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>58700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>59000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>59200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>58900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>58300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>55900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>55400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>56100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>57200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,138 +3168,156 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
-        <v>300</v>
-      </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
       <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
         <v>17500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>9700</v>
-      </c>
-      <c r="O47" s="3">
-        <v>9700</v>
       </c>
       <c r="P47" s="3">
         <v>9700</v>
       </c>
       <c r="Q47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="R47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="S47" s="3">
         <v>18500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>19000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>19100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>17100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>9000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>9200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>9500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>20000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>20300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>20600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>20700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>11600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>10700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>104900</v>
+      </c>
+      <c r="F54" s="3">
         <v>101100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>97400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>95700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>96700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>97300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>95600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>104500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>104600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>106700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>106200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>105800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>107000</v>
       </c>
       <c r="T54" s="3">
         <v>105800</v>
       </c>
       <c r="U54" s="3">
+        <v>107000</v>
+      </c>
+      <c r="V54" s="3">
+        <v>105800</v>
+      </c>
+      <c r="W54" s="3">
         <v>106700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>109500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3794,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>2000</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>6500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,32 +3932,38 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,35 +3976,41 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,62 +4074,68 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3859,73 +4145,85 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>14400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>10700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>13700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>21200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>20300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>19500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>21800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>25600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>52700</v>
+      </c>
+      <c r="F72" s="3">
         <v>49300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>43800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>44500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>43700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>43100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>47000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>46700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>48900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>49100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>47600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>47600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>47100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>47500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>45600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>48500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>48200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>46800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>47700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F76" s="3">
         <v>90700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>88900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>83400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>82000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>85400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>84600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>90400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>89800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>89900</v>
       </c>
       <c r="M76" s="3">
         <v>89800</v>
       </c>
       <c r="N76" s="3">
+        <v>89900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>89800</v>
+      </c>
+      <c r="P76" s="3">
         <v>88000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>87800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>87000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>87100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>84600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>86700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>86400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>84800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>83900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,28 +5415,30 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5052,25 +5450,25 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>-200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5082,10 +5480,16 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5939,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5544,28 +5986,34 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,16 +6148,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5727,40 +6187,46 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -1913,8 +1913,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>3300</v>
@@ -1984,8 +1984,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>3300</v>
@@ -2410,8 +2410,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>3300</v>
@@ -2552,8 +2552,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>3300</v>
@@ -3180,7 +3180,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10100</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -3251,7 +3251,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>11200</v>
       </c>
       <c r="E48" s="3">
         <v>11200</v>
@@ -3535,7 +3535,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
@@ -5324,8 +5324,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>3300</v>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>8400</v>
       </c>
       <c r="Q9" s="3">
         <v>8400</v>
       </c>
       <c r="R9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S9" s="3">
         <v>10300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7800</v>
-      </c>
-      <c r="W9" s="3">
-        <v>8200</v>
       </c>
       <c r="X9" s="3">
         <v>8200</v>
       </c>
       <c r="Y9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-5800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,22 +1163,25 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1173,17 +1192,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1191,35 +1210,38 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,49 +1524,49 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1553,46 +1586,49 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
@@ -1601,31 +1637,34 @@
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2500</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1641,14 +1680,14 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1656,8 +1695,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1665,21 +1704,21 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-200</v>
       </c>
       <c r="R24" s="3">
         <v>-200</v>
       </c>
       <c r="S24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,8 +2207,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2160,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>5200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,49 +2412,49 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2928,112 +3020,118 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>5900</v>
       </c>
       <c r="S43" s="3">
         <v>5900</v>
       </c>
       <c r="T43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U43" s="3">
         <v>6900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E44" s="3">
         <v>64800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>55600</v>
       </c>
       <c r="H44" s="3">
         <v>55600</v>
       </c>
       <c r="I44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="J44" s="3">
         <v>53900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>57200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>53400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>54100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>58700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>58900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>55900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>55400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>56100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>57200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,37 +3275,40 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
@@ -3213,10 +3317,10 @@
         <v>300</v>
       </c>
       <c r="O47" s="3">
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
         <v>17500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>9700</v>
       </c>
       <c r="Q47" s="3">
         <v>9700</v>
@@ -3225,10 +3329,10 @@
         <v>9700</v>
       </c>
       <c r="S47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="T47" s="3">
         <v>18500</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3236,88 +3340,94 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11200</v>
+        <v>10400</v>
       </c>
       <c r="E48" s="3">
         <v>11200</v>
       </c>
       <c r="F48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17100</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>11600</v>
       </c>
       <c r="N52" s="3">
         <v>11600</v>
       </c>
       <c r="O52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P52" s="3">
         <v>5500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>4800</v>
       </c>
       <c r="Q52" s="3">
         <v>4800</v>
       </c>
       <c r="R52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>8700</v>
       </c>
       <c r="V52" s="3">
         <v>8700</v>
       </c>
       <c r="W52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="X52" s="3">
         <v>9500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E54" s="3">
         <v>105100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>104900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>101100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>106700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>107000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>106700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>109500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
       </c>
       <c r="O57" s="3">
         <v>3000</v>
       </c>
       <c r="P57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>7000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>7000</v>
       </c>
       <c r="X57" s="3">
         <v>7000</v>
       </c>
       <c r="Y57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Z57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,34 +4071,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300</v>
+        <v>6200</v>
       </c>
       <c r="E59" s="3">
         <v>2300</v>
       </c>
       <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3982,20 +4118,20 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
@@ -4004,13 +4140,16 @@
         <v>500</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,65 +4219,68 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4163,67 +4308,70 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3200</v>
       </c>
       <c r="I62" s="3">
         <v>3200</v>
       </c>
       <c r="J62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="K62" s="3">
         <v>5000</v>
       </c>
       <c r="L62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>6400</v>
       </c>
       <c r="O62" s="3">
         <v>6400</v>
       </c>
       <c r="P62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>25600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E72" s="3">
         <v>53600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>44500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>47600</v>
       </c>
       <c r="Q72" s="3">
         <v>47600</v>
       </c>
       <c r="R72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="S72" s="3">
         <v>47100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E76" s="3">
         <v>95200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>85400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>88000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>87800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>84600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>86700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>86400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>84800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>83900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5435,31 +5633,31 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5468,10 +5666,10 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>1200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -5486,10 +5684,13 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,17 +6160,18 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5992,28 +6212,31 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,20 +6380,23 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6193,40 +6422,43 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E8" s="3">
         <v>25900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>8400</v>
       </c>
       <c r="R9" s="3">
         <v>8400</v>
       </c>
       <c r="S9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T9" s="3">
         <v>10300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7800</v>
-      </c>
-      <c r="X9" s="3">
-        <v>8200</v>
       </c>
       <c r="Y9" s="3">
         <v>8200</v>
       </c>
       <c r="Z9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>15300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-6000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-5800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,25 +1183,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1195,17 +1215,17 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1213,35 +1233,38 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,49 +1561,49 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1589,49 +1623,52 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-600</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
@@ -1640,31 +1677,34 @@
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2500</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,14 +1723,14 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1698,8 +1738,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1707,21 +1747,21 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-700</v>
       </c>
       <c r="R23" s="3">
         <v>-700</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-200</v>
       </c>
       <c r="S24" s="3">
         <v>-200</v>
       </c>
       <c r="T24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,37 +2239,40 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2223,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>2800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,49 +2485,49 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>15700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3023,115 +3116,121 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>5900</v>
       </c>
       <c r="T43" s="3">
         <v>5900</v>
       </c>
       <c r="U43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V43" s="3">
         <v>6900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E44" s="3">
         <v>67200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>55600</v>
       </c>
       <c r="I44" s="3">
         <v>55600</v>
       </c>
       <c r="J44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K44" s="3">
         <v>53900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>53400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>55500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>58700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>59000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>55900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>55400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>56100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>57200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,40 +3380,43 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -3320,10 +3425,10 @@
         <v>300</v>
       </c>
       <c r="P47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>17500</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>9700</v>
       </c>
       <c r="R47" s="3">
         <v>9700</v>
@@ -3332,10 +3437,10 @@
         <v>9700</v>
       </c>
       <c r="T47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="U47" s="3">
         <v>18500</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3343,91 +3448,97 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>10400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>11200</v>
       </c>
       <c r="F48" s="3">
         <v>11200</v>
       </c>
       <c r="G48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17100</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>11600</v>
       </c>
       <c r="O52" s="3">
         <v>11600</v>
       </c>
       <c r="P52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>4800</v>
       </c>
       <c r="R52" s="3">
         <v>4800</v>
       </c>
       <c r="S52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T52" s="3">
         <v>5000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
-      </c>
-      <c r="V52" s="3">
-        <v>8700</v>
       </c>
       <c r="W52" s="3">
         <v>8700</v>
       </c>
       <c r="X52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>9500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E54" s="3">
         <v>94900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>104900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>101100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>97300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>106700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>107000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>106700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>109500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3000</v>
       </c>
       <c r="P57" s="3">
         <v>3000</v>
       </c>
       <c r="Q57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="3">
         <v>7000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>7000</v>
       </c>
       <c r="Y57" s="3">
         <v>7000</v>
       </c>
       <c r="Z57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AA57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,37 +4208,40 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2300</v>
       </c>
       <c r="F59" s="3">
         <v>2300</v>
       </c>
       <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -4121,20 +4258,20 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
@@ -4143,13 +4280,16 @@
         <v>500</v>
       </c>
       <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,68 +4362,71 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4311,67 +4457,70 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3200</v>
       </c>
       <c r="J62" s="3">
         <v>3200</v>
       </c>
       <c r="K62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="L62" s="3">
         <v>5000</v>
       </c>
       <c r="M62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>6400</v>
       </c>
       <c r="P62" s="3">
         <v>6400</v>
       </c>
       <c r="Q62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R62" s="3">
         <v>6900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>25600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E72" s="3">
         <v>54800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>44500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>47600</v>
       </c>
       <c r="R72" s="3">
         <v>47600</v>
       </c>
       <c r="S72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="T72" s="3">
         <v>47100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>48500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>47700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E76" s="3">
         <v>83200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>95200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>88000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>87800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>84600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>86700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>86400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>84800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>83900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5627,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5636,31 +5835,31 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -5669,10 +5868,10 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>1200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -5687,10 +5886,13 @@
         <v>300</v>
       </c>
       <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,20 +6381,21 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -6215,28 +6436,31 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,23 +6610,26 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6425,40 +6655,43 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E8" s="3">
         <v>11200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9800</v>
       </c>
-      <c r="G8" s="3">
-        <v>16200</v>
-      </c>
       <c r="H8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7100</v>
       </c>
-      <c r="G9" s="3">
-        <v>10600</v>
-      </c>
       <c r="H9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>8400</v>
       </c>
       <c r="S9" s="3">
         <v>8400</v>
       </c>
       <c r="T9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="U9" s="3">
         <v>10300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7800</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>8200</v>
       </c>
       <c r="Z9" s="3">
         <v>8200</v>
       </c>
       <c r="AA9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AB9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-5800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,28 +1203,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1218,17 +1238,17 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1236,35 +1256,38 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
-        <v>11900</v>
-      </c>
       <c r="H17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,49 +1598,49 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1626,52 +1660,55 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
@@ -1680,31 +1717,34 @@
         <v>-600</v>
       </c>
       <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2500</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,14 +1766,14 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1741,8 +1781,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1750,21 +1790,21 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
       </c>
       <c r="S23" s="3">
         <v>-700</v>
       </c>
       <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-200</v>
       </c>
       <c r="T24" s="3">
         <v>-200</v>
       </c>
       <c r="U24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,14 +2329,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2287,25 +2348,25 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>5200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>2800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,49 +2558,49 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
         <v>15900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3119,118 +3212,124 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5500</v>
-      </c>
-      <c r="T43" s="3">
-        <v>5900</v>
       </c>
       <c r="U43" s="3">
         <v>5900</v>
       </c>
       <c r="V43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W43" s="3">
         <v>6900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E44" s="3">
         <v>68600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>61800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>55600</v>
       </c>
       <c r="J44" s="3">
         <v>55600</v>
       </c>
       <c r="K44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="L44" s="3">
         <v>53900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>58700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>58300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>55900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>55400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>56100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>57200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,34 +3497,34 @@
         <v>9000</v>
       </c>
       <c r="E47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -3428,10 +3533,10 @@
         <v>300</v>
       </c>
       <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
         <v>17500</v>
-      </c>
-      <c r="R47" s="3">
-        <v>9700</v>
       </c>
       <c r="S47" s="3">
         <v>9700</v>
@@ -3440,10 +3545,10 @@
         <v>9700</v>
       </c>
       <c r="U47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="V47" s="3">
         <v>18500</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3451,17 +3556,20 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,76 +3577,79 @@
         <v>1400</v>
       </c>
       <c r="E48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="3">
         <v>10400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11200</v>
       </c>
       <c r="G48" s="3">
         <v>11200</v>
       </c>
       <c r="H48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I48" s="3">
         <v>13600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17100</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
       </c>
       <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>11600</v>
       </c>
       <c r="P52" s="3">
         <v>11600</v>
       </c>
       <c r="Q52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R52" s="3">
         <v>5500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>4800</v>
       </c>
       <c r="S52" s="3">
         <v>4800</v>
       </c>
       <c r="T52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U52" s="3">
         <v>5000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
-      </c>
-      <c r="W52" s="3">
-        <v>8700</v>
       </c>
       <c r="X52" s="3">
         <v>8700</v>
       </c>
       <c r="Y52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Z52" s="3">
         <v>9500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E54" s="3">
         <v>96800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>104900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>101100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>106700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>106200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>107000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>105800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>106700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>109500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3000</v>
       </c>
       <c r="Q57" s="3">
         <v>3000</v>
       </c>
       <c r="R57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S57" s="3">
         <v>7000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>7000</v>
       </c>
       <c r="Z57" s="3">
         <v>7000</v>
       </c>
       <c r="AA57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,40 +4345,43 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2300</v>
       </c>
       <c r="G59" s="3">
         <v>2300</v>
       </c>
       <c r="H59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -4261,20 +4398,20 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
@@ -4283,13 +4420,16 @@
         <v>500</v>
       </c>
       <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,71 +4505,74 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4460,67 +4606,70 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3200</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
       </c>
       <c r="L62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="M62" s="3">
         <v>5000</v>
       </c>
       <c r="N62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>6400</v>
       </c>
       <c r="Q62" s="3">
         <v>6400</v>
       </c>
       <c r="R62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S62" s="3">
         <v>6900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>25600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E72" s="3">
         <v>56700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>47600</v>
       </c>
       <c r="S72" s="3">
         <v>47600</v>
       </c>
       <c r="T72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="U72" s="3">
         <v>47100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>48500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>46800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>47700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E76" s="3">
         <v>85300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>95200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>88000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>87800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>84600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>86700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>86400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>84800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>83900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5838,31 +6037,31 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5871,10 +6070,10 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>1200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
@@ -5889,10 +6088,13 @@
         <v>300</v>
       </c>
       <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,23 +6602,24 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6439,28 +6660,31 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,26 +6840,29 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6658,40 +6888,43 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E8" s="3">
         <v>16100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="X8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>9800</v>
       </c>
-      <c r="H8" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>18700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>9300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>8900</v>
-      </c>
-      <c r="W8" s="3">
-        <v>10400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>8900</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>9800</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
-        <v>7100</v>
-      </c>
       <c r="H9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I9" s="3">
         <v>10500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>8400</v>
       </c>
       <c r="T9" s="3">
         <v>8400</v>
       </c>
       <c r="U9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="V9" s="3">
         <v>10300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7800</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>8200</v>
       </c>
       <c r="AA9" s="3">
         <v>8200</v>
       </c>
       <c r="AB9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AC9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="3">
         <v>5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-5800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-4400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1223,34 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>2300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1241,17 +1261,17 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1259,35 +1279,38 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
         <v>11700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="W17" s="3">
         <v>11800</v>
       </c>
-      <c r="I17" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>5100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
-        <v>1100</v>
-      </c>
       <c r="H18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="3">
         <v>4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1616,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1604,46 +1638,46 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1663,55 +1697,58 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
@@ -1720,31 +1757,34 @@
         <v>-600</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2500</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1769,14 +1809,14 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1784,8 +1824,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1793,21 +1833,21 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-700</v>
       </c>
       <c r="T23" s="3">
         <v>-700</v>
       </c>
       <c r="U23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-200</v>
       </c>
       <c r="U24" s="3">
         <v>-200</v>
       </c>
       <c r="V24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W24" s="3">
         <v>-300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2332,14 +2393,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2351,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>5200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2610,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2564,46 +2634,46 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3215,121 +3308,127 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5500</v>
-      </c>
-      <c r="U43" s="3">
-        <v>5900</v>
       </c>
       <c r="V43" s="3">
         <v>5900</v>
       </c>
       <c r="W43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="X43" s="3">
         <v>6900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E44" s="3">
         <v>70000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>68600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>67200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>55600</v>
       </c>
       <c r="K44" s="3">
         <v>55600</v>
       </c>
       <c r="L44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="M44" s="3">
         <v>53900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>53400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>58700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>59000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>58900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>58300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>55900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>55400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>56100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>57200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,46 +3590,49 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>9000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>9000</v>
       </c>
       <c r="F47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
       </c>
       <c r="O47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
@@ -3536,10 +3641,10 @@
         <v>300</v>
       </c>
       <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
         <v>17500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>9700</v>
       </c>
       <c r="T47" s="3">
         <v>9700</v>
@@ -3548,10 +3653,10 @@
         <v>9700</v>
       </c>
       <c r="V47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="W47" s="3">
         <v>18500</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3559,97 +3664,103 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>13100</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
       </c>
       <c r="F48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G48" s="3">
         <v>10400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11200</v>
       </c>
       <c r="H48" s="3">
         <v>11200</v>
       </c>
       <c r="I48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J48" s="3">
         <v>13600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17100</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1500</v>
       </c>
       <c r="H52" s="3">
         <v>1500</v>
       </c>
       <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>11600</v>
       </c>
       <c r="Q52" s="3">
         <v>11600</v>
       </c>
       <c r="R52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S52" s="3">
         <v>5500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>4800</v>
       </c>
       <c r="T52" s="3">
         <v>4800</v>
       </c>
       <c r="U52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V52" s="3">
         <v>5000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
-      </c>
-      <c r="X52" s="3">
-        <v>8700</v>
       </c>
       <c r="Y52" s="3">
         <v>8700</v>
       </c>
       <c r="Z52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AA52" s="3">
         <v>9500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E54" s="3">
         <v>96200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>104900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>101100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>97300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>100100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>106700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>106200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>105800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>107000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>105800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>106700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>109500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3000</v>
       </c>
       <c r="R57" s="3">
         <v>3000</v>
       </c>
       <c r="S57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T57" s="3">
         <v>7000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6500</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>7000</v>
       </c>
       <c r="AA57" s="3">
         <v>7000</v>
       </c>
       <c r="AB57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,43 +4482,46 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2300</v>
       </c>
       <c r="H59" s="3">
         <v>2300</v>
       </c>
       <c r="I59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -4401,20 +4538,20 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
@@ -4423,13 +4560,16 @@
         <v>500</v>
       </c>
       <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,65 +4660,65 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4599,8 +4745,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4609,67 +4755,70 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3200</v>
       </c>
       <c r="L62" s="3">
         <v>3200</v>
       </c>
       <c r="M62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="N62" s="3">
         <v>5000</v>
       </c>
       <c r="O62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>6400</v>
       </c>
       <c r="R62" s="3">
         <v>6400</v>
       </c>
       <c r="S62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="T62" s="3">
         <v>6900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>25600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E72" s="3">
         <v>60400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>47600</v>
       </c>
       <c r="T72" s="3">
         <v>47600</v>
       </c>
       <c r="U72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="V72" s="3">
         <v>47100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>48500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>46800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>47700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E76" s="3">
         <v>89000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>83200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>95200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>88000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>87800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>84600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>86700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>86400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>84800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>83900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6031,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -6040,31 +6239,31 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -6073,10 +6272,10 @@
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>1200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
@@ -6091,10 +6290,13 @@
         <v>300</v>
       </c>
       <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,17 +6833,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -6663,28 +6884,31 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,20 +7082,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6891,40 +7121,43 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E8" s="3">
         <v>9100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11200</v>
       </c>
-      <c r="G8" s="3">
-        <v>25900</v>
-      </c>
       <c r="H8" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
-        <v>10600</v>
-      </c>
       <c r="H9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
-      </c>
-      <c r="T9" s="3">
-        <v>8400</v>
       </c>
       <c r="U9" s="3">
         <v>8400</v>
       </c>
       <c r="V9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W9" s="3">
         <v>10300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7800</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>8200</v>
       </c>
       <c r="AB9" s="3">
         <v>8200</v>
       </c>
       <c r="AC9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AD9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-5800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-6100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-4400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,22 +1242,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1252,8 +1271,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1264,17 +1283,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>5000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1282,35 +1301,38 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>200</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
-        <v>11900</v>
-      </c>
       <c r="H17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,17 +1649,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1641,46 +1674,46 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1700,58 +1733,61 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
@@ -1760,31 +1796,34 @@
         <v>-600</v>
       </c>
       <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2500</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1812,14 +1851,14 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1827,8 +1866,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1836,21 +1875,21 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1866,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-700</v>
       </c>
       <c r="U23" s="3">
         <v>-700</v>
       </c>
       <c r="V23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-200</v>
       </c>
       <c r="V24" s="3">
         <v>-200</v>
       </c>
       <c r="W24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X24" s="3">
         <v>-300</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
       </c>
       <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>16600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>16600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,14 +2456,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2415,25 +2475,25 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>5200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,17 +2679,20 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2637,46 +2706,46 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2696,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>16600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>16600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3311,124 +3403,130 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5500</v>
-      </c>
-      <c r="V43" s="3">
-        <v>5900</v>
       </c>
       <c r="W43" s="3">
         <v>5900</v>
       </c>
       <c r="X43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y43" s="3">
         <v>6900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E44" s="3">
         <v>70700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>70000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>68600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>64800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>55600</v>
       </c>
       <c r="L44" s="3">
         <v>55600</v>
       </c>
       <c r="M44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="N44" s="3">
         <v>53900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>53400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>54100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>55500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>57800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>59000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>59200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>58900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>58300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>55900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>55400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>56100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>57200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,49 +3694,52 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>9000</v>
       </c>
       <c r="F47" s="3">
         <v>9000</v>
       </c>
       <c r="G47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
@@ -3644,10 +3748,10 @@
         <v>300</v>
       </c>
       <c r="S47" s="3">
+        <v>300</v>
+      </c>
+      <c r="T47" s="3">
         <v>17500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>9700</v>
       </c>
       <c r="U47" s="3">
         <v>9700</v>
@@ -3656,10 +3760,10 @@
         <v>9700</v>
       </c>
       <c r="W47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="X47" s="3">
         <v>18500</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
@@ -3667,100 +3771,106 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
       </c>
       <c r="G48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3">
         <v>10400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>11200</v>
       </c>
       <c r="I48" s="3">
         <v>11200</v>
       </c>
       <c r="J48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K48" s="3">
         <v>13600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17100</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>20700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
         <v>16600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1500</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
       </c>
       <c r="J52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>11600</v>
       </c>
       <c r="R52" s="3">
         <v>11600</v>
       </c>
       <c r="S52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T52" s="3">
         <v>5500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>4800</v>
       </c>
       <c r="U52" s="3">
         <v>4800</v>
       </c>
       <c r="V52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W52" s="3">
         <v>5000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4800</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>8700</v>
       </c>
       <c r="Z52" s="3">
         <v>8700</v>
       </c>
       <c r="AA52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AB52" s="3">
         <v>9500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E54" s="3">
         <v>113100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>104900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>101100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>97300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>106700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>106200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>105800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>107000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>105800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>106700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>109500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3000</v>
       </c>
       <c r="S57" s="3">
         <v>3000</v>
       </c>
       <c r="T57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U57" s="3">
         <v>7000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6500</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>7000</v>
       </c>
       <c r="AB57" s="3">
         <v>7000</v>
       </c>
       <c r="AC57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AD57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,46 +4618,49 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2300</v>
       </c>
       <c r="I59" s="3">
         <v>2300</v>
       </c>
       <c r="J59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -4541,20 +4677,20 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>500</v>
@@ -4563,13 +4699,16 @@
         <v>500</v>
       </c>
       <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,77 +4790,80 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4893,8 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4758,67 +4903,70 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3200</v>
       </c>
       <c r="M62" s="3">
         <v>3200</v>
       </c>
       <c r="N62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="O62" s="3">
         <v>5000</v>
       </c>
       <c r="P62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>6400</v>
       </c>
       <c r="S62" s="3">
         <v>6400</v>
       </c>
       <c r="T62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U62" s="3">
         <v>6900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>13700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>25600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E72" s="3">
         <v>76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>48900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>47600</v>
       </c>
       <c r="U72" s="3">
         <v>47600</v>
       </c>
       <c r="V72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="W72" s="3">
         <v>47100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>48500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>46800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>47700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E76" s="3">
         <v>107400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>95200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>88000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>87800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>87100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>84600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>86700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>86400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>84800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>83900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>16600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6233,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -6242,31 +6440,31 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -6275,10 +6473,10 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>1200</v>
-      </c>
-      <c r="X83" s="3">
-        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
@@ -6293,10 +6491,13 @@
         <v>300</v>
       </c>
       <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6836,17 +7056,17 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6887,28 +7107,31 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7085,20 +7314,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -7124,40 +7353,43 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AXR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AXR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
         <v>12700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16100</v>
       </c>
-      <c r="G8" s="3">
-        <v>11200</v>
-      </c>
       <c r="H8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I8" s="3">
         <v>23500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>6600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
-        <v>8200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>8400</v>
       </c>
       <c r="V9" s="3">
         <v>8400</v>
       </c>
       <c r="W9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="X9" s="3">
         <v>10300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7800</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>8200</v>
       </c>
       <c r="AC9" s="3">
         <v>8200</v>
       </c>
       <c r="AD9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AE9" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-5800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-6100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,25 +1262,28 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1274,8 +1294,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1286,17 +1306,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1304,35 +1324,38 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>200</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AD17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>8700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>13400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>8100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>5100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>8800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>9100</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>9300</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>9500</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
-        <v>2500</v>
-      </c>
       <c r="H18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,11 +1693,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1677,46 +1711,46 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1736,61 +1770,64 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
       </c>
       <c r="U21" s="3">
         <v>-600</v>
@@ -1799,31 +1836,34 @@
         <v>-600</v>
       </c>
       <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2500</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1854,14 +1894,14 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1869,8 +1909,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1878,21 +1918,21 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-700</v>
       </c>
       <c r="V23" s="3">
         <v>-700</v>
       </c>
       <c r="W23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-15200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V24" s="3">
         <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-200</v>
       </c>
       <c r="W24" s="3">
         <v>-200</v>
       </c>
       <c r="X24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
       </c>
       <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
-        <v>1900</v>
-      </c>
       <c r="H26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I26" s="3">
         <v>10000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
-        <v>1900</v>
-      </c>
       <c r="H27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I27" s="3">
         <v>10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2459,14 +2520,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2478,25 +2539,25 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>5200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>2800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,11 +2761,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2709,46 +2779,46 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
-        <v>1900</v>
-      </c>
       <c r="H33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I33" s="3">
         <v>10000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
-        <v>1900</v>
-      </c>
       <c r="H35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I35" s="3">
         <v>10000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E41" s="3">
         <v>20000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3406,127 +3499,133 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5500</v>
-      </c>
-      <c r="W43" s="3">
-        <v>5900</v>
       </c>
       <c r="X43" s="3">
         <v>5900</v>
       </c>
       <c r="Y43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Z43" s="3">
         <v>6900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E44" s="3">
         <v>65600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>70700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>70000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>68600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>64800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>55600</v>
       </c>
       <c r="M44" s="3">
         <v>55600</v>
       </c>
       <c r="N44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="O44" s="3">
         <v>53900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>53400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>54100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>54200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>55500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>57800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>59000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>59200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>58900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>58300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>55900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>55400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>56100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>57200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,52 +3799,55 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>9000</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>9000</v>
       </c>
       <c r="H47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -3751,10 +3856,10 @@
         <v>300</v>
       </c>
       <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
         <v>17500</v>
-      </c>
-      <c r="U47" s="3">
-        <v>9700</v>
       </c>
       <c r="V47" s="3">
         <v>9700</v>
@@ -3763,10 +3868,10 @@
         <v>9700</v>
       </c>
       <c r="X47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="Y47" s="3">
         <v>18500</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
@@ -3774,103 +3879,109 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E48" s="3">
         <v>15100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
       </c>
       <c r="H48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I48" s="3">
         <v>10400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>11200</v>
       </c>
       <c r="J48" s="3">
         <v>11200</v>
       </c>
       <c r="K48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="L48" s="3">
         <v>13600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17100</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>20600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>20700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1500</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
       </c>
       <c r="K52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>11600</v>
       </c>
       <c r="S52" s="3">
         <v>11600</v>
       </c>
       <c r="T52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="U52" s="3">
         <v>5500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>4800</v>
       </c>
       <c r="V52" s="3">
         <v>4800</v>
       </c>
       <c r="W52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="X52" s="3">
         <v>5000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4800</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>8700</v>
       </c>
       <c r="AA52" s="3">
         <v>8700</v>
       </c>
       <c r="AB52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="AC52" s="3">
         <v>9500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E54" s="3">
         <v>115900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>104900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>101100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>100500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>106700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>106200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>105800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>107000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>105800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>106700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>109500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3000</v>
       </c>
       <c r="T57" s="3">
         <v>3000</v>
       </c>
       <c r="U57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V57" s="3">
         <v>7000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6500</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>7000</v>
       </c>
       <c r="AC57" s="3">
         <v>7000</v>
       </c>
       <c r="AD57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="AE57" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,49 +4755,52 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2300</v>
       </c>
       <c r="J59" s="3">
         <v>2300</v>
       </c>
       <c r="K59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -4680,20 +4817,20 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
@@ -4702,13 +4839,16 @@
         <v>500</v>
       </c>
       <c r="AC59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,71 +4945,71 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4896,8 +5042,8 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4906,67 +5052,70 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3200</v>
       </c>
       <c r="N62" s="3">
         <v>3200</v>
       </c>
       <c r="O62" s="3">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P62" s="3">
         <v>5000</v>
       </c>
       <c r="Q62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>6400</v>
       </c>
       <c r="T62" s="3">
         <v>6400</v>
       </c>
       <c r="U62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="V62" s="3">
         <v>6900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>13700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>21800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>25600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E72" s="3">
         <v>76600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>48900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>49100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>47600</v>
       </c>
       <c r="V72" s="3">
         <v>47600</v>
       </c>
       <c r="W72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="X72" s="3">
         <v>47100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>45600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>48500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>48200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>46800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>47700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>47500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E76" s="3">
         <v>111000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>89000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>95200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>85400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>89800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>88000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>87800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>87000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>87100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>84600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>86700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>86400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>84800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>83900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
-        <v>1900</v>
-      </c>
       <c r="H81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I81" s="3">
         <v>10000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6434,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -6443,31 +6642,31 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -6476,10 +6675,10 @@
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>300</v>
@@ -6494,10 +6693,13 @@
         <v>300</v>
       </c>
       <c r="AD83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7059,17 +7280,17 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -7110,28 +7331,31 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7317,20 +7547,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -7356,40 +7586,43 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
     </row>
